--- a/Semester_B/תוצאות ניסויים.xlsx
+++ b/Semester_B/תוצאות ניסויים.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayz\OneDrive - post.bgu.ac.il\שולחן העבודה\Study\שנה ה 2023 - 2024\סמסטר א\פרויקט מסכם 1\פרויקט\08 ProjectCode\Semester_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2626D1D-E70E-448B-B51C-6C24A5ED0841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC44F37-064B-440B-BFCD-110DF3F28412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
     </r>
   </si>
   <si>
-    <t>FIX prompt (limit return to 3 rules only)</t>
+    <t>FIX prompt (limit return to 2 rules only)</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +577,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -660,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -689,6 +695,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,6 +720,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,24 +1030,24 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="H2" s="10" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="H2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="N2" s="10" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="N2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="1:17" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -1250,7 +1274,7 @@
       <c r="C10" s="2">
         <v>0.08</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="8">
         <v>0.3</v>
       </c>
       <c r="E10" s="2">
@@ -1273,114 +1297,114 @@
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
       <c r="N11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="10">
         <v>0.08</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="11">
         <v>0.12</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
       <c r="N12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="1"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="H20" s="10" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="N20" s="10" t="s">
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="N20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
@@ -1424,9 +1448,15 @@
       <c r="B22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.18</v>
+      </c>
       <c r="H22" s="7" t="s">
         <v>9</v>
       </c>
@@ -1450,9 +1480,15 @@
       <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.21</v>
+      </c>
       <c r="H23" s="7" t="s">
         <v>10</v>
       </c>
@@ -1508,9 +1544,15 @@
       <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.11</v>
+      </c>
       <c r="H25" s="7" t="s">
         <v>8</v>
       </c>
@@ -1528,9 +1570,15 @@
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.17</v>
+      </c>
       <c r="H26" s="7" t="s">
         <v>11</v>
       </c>
@@ -1548,9 +1596,15 @@
       <c r="B27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="C27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.12</v>
+      </c>
       <c r="H27" s="7" t="s">
         <v>12</v>
       </c>
@@ -1568,9 +1622,15 @@
       <c r="B28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="C28" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.2</v>
+      </c>
       <c r="H28" s="7" t="s">
         <v>13</v>
       </c>
@@ -1588,9 +1648,15 @@
       <c r="B29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.13</v>
+      </c>
       <c r="H29" s="7" t="s">
         <v>15</v>
       </c>
@@ -1608,9 +1674,15 @@
       <c r="B30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0.23</v>
+      </c>
       <c r="H30" s="7" t="s">
         <v>14</v>
       </c>

--- a/Semester_B/תוצאות ניסויים.xlsx
+++ b/Semester_B/תוצאות ניסויים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayz\OneDrive - post.bgu.ac.il\שולחן העבודה\Study\שנה ה 2023 - 2024\סמסטר א\פרויקט מסכם 1\פרויקט\08 ProjectCode\Semester_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC44F37-064B-440B-BFCD-110DF3F28412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2033A95D-7F2E-4777-AEAE-4F5F40398D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,6 +704,12 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,15 +726,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,24 +1027,24 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="H2" s="13" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="N2" s="13" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="N2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -1346,65 +1343,65 @@
       <c r="Q12" s="11"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="H20" s="13" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="H20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="N20" s="13" t="s">
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="N20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
@@ -1486,7 +1483,7 @@
       <c r="D23" s="8">
         <v>0.32</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="1">
         <v>0.21</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -1524,9 +1521,15 @@
       <c r="H24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.2</v>
+      </c>
       <c r="N24" s="7" t="s">
         <v>7</v>
       </c>
@@ -1674,13 +1677,13 @@
       <c r="B30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="13">
         <v>0.22</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="13">
         <v>0.25</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="14">
         <v>0.23</v>
       </c>
       <c r="H30" s="7" t="s">

--- a/Semester_B/תוצאות ניסויים.xlsx
+++ b/Semester_B/תוצאות ניסויים.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayz\OneDrive - post.bgu.ac.il\שולחן העבודה\Study\שנה ה 2023 - 2024\סמסטר א\פרויקט מסכם 1\פרויקט\08 ProjectCode\Semester_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2033A95D-7F2E-4777-AEAE-4F5F40398D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097CEF4D-4FC1-45C8-840A-1FBA974C53A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gemini" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="61">
   <si>
     <t>precision</t>
   </si>
@@ -455,14 +467,726 @@
     </r>
   </si>
   <si>
-    <t>FIX prompt (limit return to 2 rules only)</t>
+    <t>FIX prompt</t>
+  </si>
+  <si>
+    <t>Nir_Dataset_162_without_techniques_without_limit</t>
+  </si>
+  <si>
+    <t>Nir_Dataset_162_with_techniques_without_limit</t>
+  </si>
+  <si>
+    <t>Nir_Dataset_162_without_techniques_with_limit</t>
+  </si>
+  <si>
+    <t>Nir_Dataset_162_with_techniques_with_limit</t>
+  </si>
+  <si>
+    <t>Our_Dataset_300_without_techniques_and_zero_shot_without_limit</t>
+  </si>
+  <si>
+    <t>Our_Dataset_300_without_techniques_and_zero_shot_with_limit</t>
+  </si>
+  <si>
+    <t>Our_Dataset_300_without_techniques_and_one_shot_without_limit</t>
+  </si>
+  <si>
+    <t>Our_Dataset_300_without_techniques_and_one_shot_with_limit</t>
+  </si>
+  <si>
+    <t>Our_Dataset_300_without_techniques_and_two_shot_without_limit</t>
+  </si>
+  <si>
+    <t>Our_Dataset_300_without_techniques_and_two_shot_with_limit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Zero)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Without_Limit_Prompt_Without_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <t>(Zero) Without_Limit_Prompt_With_Competition_Without_Limit_Return</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Zero) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With_Limit_Prompt_Without_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Zero) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without_Limit_Prompt_Without_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Zero) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With_Limit_Prompt_Without_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Zero) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With_Limit_Prompt_With_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Zero) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without_Limit_Prompt_With_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Zero) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With_Limit_Prompt_With_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <t>(One) Without_Limit_Prompt_With_Competition_Without_Limit_Return</t>
+  </si>
+  <si>
+    <t>(Two) Without_Limit_Prompt_With_Competition_Without_Limit_Return</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(One)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Without_Limit_Prompt_Without_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(One)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> With_Limit_Prompt_Without_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(One)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Without_Limit_Prompt_Without_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(One) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With_Limit_Prompt_Without_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(One)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> With_Limit_Prompt_With_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(One)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Without_Limit_Prompt_With_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(One</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) With_Limit_Prompt_With_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Two) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without_Limit_Prompt_Without_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Two)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> With_Limit_Prompt_Without_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Two) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without_Limit_Prompt_Without_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Two)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> With_Limit_Prompt_Without_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Two) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With_Limit_Prompt_With_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Two) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without_Limit_Prompt_With_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Two) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With_Limit_Prompt_With_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <t>(Zero) Our_Dataset_300_without_techniques_and_zero_shot_with_limit</t>
+  </si>
+  <si>
+    <t>(One) Our_Dataset_300_without_techniques_and_one_shot_with_limit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Zero)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Without_Limit_Prompt_With_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Two)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Without_Limit_Prompt_With_Competition_With_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Zero) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nir_Dataset_162_without_techniques_with_limit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Zero)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nir_Dataset_162_with_techniques_with_limit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Zero) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without_Limit_Prompt_With_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(One) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without_Limit_Prompt_With_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Two)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Without_Limit_Prompt_With_Competition_Without_Limit_Return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Two)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> With_Limit_Prompt_without_techniques_and_two_shot_With_Limit_Return</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,8 +1254,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,8 +1324,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF68CA3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA691F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DF5DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BE5F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -661,12 +1442,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,8 +1593,80 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,6 +1686,127 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -735,6 +1814,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8BE5F7"/>
+      <color rgb="FFF68CA3"/>
+      <color rgb="FF8DF5DC"/>
+      <color rgb="FFA691F1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1009,42 +2096,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" customWidth="1"/>
     <col min="3" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" customWidth="1"/>
+    <col min="8" max="8" width="48.5546875" customWidth="1"/>
     <col min="9" max="11" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="34.44140625" customWidth="1"/>
+    <col min="14" max="14" width="49.33203125" customWidth="1"/>
     <col min="15" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="H2" s="15" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="H2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="N2" s="15" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="N2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -1343,77 +2430,77 @@
       <c r="Q12" s="11"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="H20" s="15" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="H20" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="N20" s="15" t="s">
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
+      <c r="N20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
-    </row>
-    <row r="21" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+    </row>
+    <row r="21" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="52" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -1441,72 +2528,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2">
+    <row r="22" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="57">
         <v>0.16</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="57">
         <v>0.2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="58">
         <v>0.18</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
-      <c r="N22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O22" s="2">
+      <c r="H22" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N22" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="8">
         <v>0.218</v>
       </c>
       <c r="P22" s="2">
         <v>0.38700000000000001</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="9">
         <v>0.247</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="8">
+    <row r="23" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="59">
         <v>0.23</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="59">
         <v>0.32</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="60">
         <v>0.21</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1"/>
-      <c r="N23" s="7" t="s">
-        <v>10</v>
+      <c r="H23" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="N23" s="69" t="s">
+        <v>56</v>
       </c>
       <c r="O23" s="2">
         <v>0.17899999999999999</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="8">
         <v>0.45400000000000001</v>
       </c>
       <c r="Q23" s="1">
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2">
@@ -1518,7 +2617,7 @@
       <c r="E24" s="2">
         <v>0.08</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="46" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="2">
@@ -1530,7 +2629,7 @@
       <c r="K24" s="1">
         <v>0.2</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="46" t="s">
         <v>7</v>
       </c>
       <c r="O24" s="2">
@@ -1543,164 +2642,678 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2">
+    <row r="25" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="61">
         <v>0.1</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="61">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="62">
         <v>0.11</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="1"/>
-      <c r="N25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="H25" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="10">
         <v>0.15</v>
       </c>
-      <c r="D26" s="2">
+      <c r="J25" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="N25" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="D26" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="E26" s="48">
         <v>0.2</v>
       </c>
-      <c r="E26" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="1"/>
-      <c r="N26" s="7" t="s">
-        <v>11</v>
+      <c r="H26" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N26" s="64" t="s">
+        <v>57</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>12</v>
+    <row r="27" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="D27" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="E27" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="N27" s="7" t="s">
-        <v>12</v>
+      <c r="K27" s="1"/>
+      <c r="N27" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="61">
+        <v>0.15</v>
+      </c>
+      <c r="E28" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="H28" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="N28" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="53">
+        <v>0.16</v>
+      </c>
+      <c r="D29" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="E29" s="53">
         <v>0.18</v>
       </c>
-      <c r="D28" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="N28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>15</v>
+      <c r="H29" s="65" t="s">
+        <v>58</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="N29" s="7" t="s">
-        <v>15</v>
+      <c r="N29" s="65" t="s">
+        <v>58</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="D30" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0.23</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>14</v>
+    <row r="30" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="1"/>
-      <c r="N30" s="7" t="s">
-        <v>14</v>
+      <c r="K30" s="2"/>
+      <c r="N30" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="1"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="63">
+        <v>0.12</v>
+      </c>
+      <c r="D31" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E31" s="63">
+        <v>0.13</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="N31" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="E32" s="45">
+        <v>0.18</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="1"/>
+      <c r="N32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="55">
+        <v>0.16</v>
+      </c>
+      <c r="D33" s="55">
+        <v>0.19</v>
+      </c>
+      <c r="E33" s="56">
+        <v>0.18</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="67"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="1"/>
+      <c r="N33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="67"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
+      <c r="H40" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="83"/>
+      <c r="N40" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="83"/>
+    </row>
+    <row r="41" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="57">
+        <v>0.16</v>
+      </c>
+      <c r="D42" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="58">
+        <v>0.18</v>
+      </c>
+      <c r="H42" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N42" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0.218</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="59">
+        <v>0.23</v>
+      </c>
+      <c r="D43" s="59">
+        <v>0.32</v>
+      </c>
+      <c r="E43" s="60">
+        <v>0.21</v>
+      </c>
+      <c r="H43" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="N43" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="P43" s="8">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="75"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="75"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="75"/>
+    </row>
+    <row r="45" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N45" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="63">
+        <v>0.12</v>
+      </c>
+      <c r="D46" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E46" s="63">
+        <v>0.13</v>
+      </c>
+      <c r="H46" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="N46" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+    </row>
+    <row r="47" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="76"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="62"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="62"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="62"/>
+    </row>
+    <row r="48" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="D48" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="E48" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="H48" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="N48" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+    </row>
+    <row r="49" spans="2:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="D49" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="E49" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="N49" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+    </row>
+    <row r="50" spans="2:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="53">
+        <v>0.16</v>
+      </c>
+      <c r="D50" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="E50" s="53">
+        <v>0.18</v>
+      </c>
+      <c r="H50" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="84"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="84"/>
+      <c r="N50" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="O50" s="84"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="84"/>
+    </row>
+    <row r="51" spans="2:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="N51" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="2:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="E52" s="45">
+        <v>0.18</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="45"/>
+      <c r="N52" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="45"/>
+    </row>
+    <row r="53" spans="2:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="55">
+        <v>0.16</v>
+      </c>
+      <c r="D53" s="55">
+        <v>0.19</v>
+      </c>
+      <c r="E53" s="56">
+        <v>0.18</v>
+      </c>
+      <c r="H53" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="56"/>
+      <c r="N53" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="N40:Q40"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="N2:Q2"/>
@@ -1712,4 +3325,551 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D97262-586D-4AA2-A676-C5BE1616E623}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="68.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.09</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.16</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.23</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="D15" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0.22</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0.22</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="C23" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.22</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0.22</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0.22</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D30" s="31">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0.33</v>
+      </c>
+      <c r="D31" s="31">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="D32" s="31">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="30">
+        <v>0.12</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.23</v>
+      </c>
+      <c r="D33" s="31">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="30">
+        <v>0.16</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0.21</v>
+      </c>
+      <c r="D34" s="31">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="C35" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="31">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="30">
+        <v>0.16</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.19</v>
+      </c>
+      <c r="D36" s="31">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="30">
+        <v>0.11</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="31">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f>MAX(B3:B37)</f>
+        <v>0.23</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:D38" si="0">MAX(C3:C37)</f>
+        <v>0.35</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Semester_B/תוצאות ניסויים.xlsx
+++ b/Semester_B/תוצאות ניסויים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayz\OneDrive - post.bgu.ac.il\שולחן העבודה\Study\שנה ה 2023 - 2024\סמסטר א\פרויקט מסכם 1\פרויקט\08 ProjectCode\Semester_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097CEF4D-4FC1-45C8-840A-1FBA974C53A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246CB20F-6F3A-4483-A1E8-0B13487EABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="62">
   <si>
     <t>precision</t>
   </si>
@@ -1180,6 +1180,9 @@
       </rPr>
       <t xml:space="preserve"> With_Limit_Prompt_without_techniques_and_two_shot_With_Limit_Return</t>
     </r>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1668,24 +1671,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1794,6 +1779,10 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1803,10 +1792,30 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -2098,13 +2107,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.44140625" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" customWidth="1"/>
     <col min="3" max="5" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="48.5546875" customWidth="1"/>
     <col min="9" max="11" width="11.6640625" customWidth="1"/>
@@ -2114,24 +2123,24 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="H2" s="39" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="H2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
-      <c r="N2" s="39" t="s">
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="N2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -2430,77 +2439,77 @@
       <c r="Q12" s="11"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="H20" s="39" t="s">
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="H20" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
-      <c r="N20" s="39" t="s">
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="N20" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="82"/>
     </row>
     <row r="21" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="46" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -2529,19 +2538,19 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="51">
         <v>0.16</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="51">
         <v>0.2</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="52">
         <v>0.18</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="65" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="2">
@@ -2553,7 +2562,7 @@
       <c r="K22" s="1">
         <v>0.3</v>
       </c>
-      <c r="N22" s="71" t="s">
+      <c r="N22" s="65" t="s">
         <v>55</v>
       </c>
       <c r="O22" s="8">
@@ -2567,19 +2576,19 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="53">
         <v>0.23</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="53">
         <v>0.32</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="54">
         <v>0.21</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="63" t="s">
         <v>56</v>
       </c>
       <c r="I23" s="8">
@@ -2591,7 +2600,7 @@
       <c r="K23" s="9">
         <v>0.45</v>
       </c>
-      <c r="N23" s="69" t="s">
+      <c r="N23" s="63" t="s">
         <v>56</v>
       </c>
       <c r="O23" s="2">
@@ -2605,7 +2614,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2">
@@ -2617,7 +2626,7 @@
       <c r="E24" s="2">
         <v>0.08</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="2">
@@ -2629,7 +2638,7 @@
       <c r="K24" s="1">
         <v>0.2</v>
       </c>
-      <c r="N24" s="46" t="s">
+      <c r="N24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="O24" s="2">
@@ -2643,19 +2652,19 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="55">
         <v>0.1</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="55">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="56">
         <v>0.11</v>
       </c>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="62" t="s">
         <v>51</v>
       </c>
       <c r="I25" s="10">
@@ -2667,7 +2676,7 @@
       <c r="K25" s="11">
         <v>0.19</v>
       </c>
-      <c r="N25" s="68" t="s">
+      <c r="N25" s="62" t="s">
         <v>51</v>
       </c>
       <c r="O25" s="10"/>
@@ -2675,19 +2684,19 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="42">
         <v>0.18</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="42">
         <v>0.22</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="42">
         <v>0.2</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="58" t="s">
         <v>57</v>
       </c>
       <c r="I26" s="2">
@@ -2699,7 +2708,7 @@
       <c r="K26" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N26" s="64" t="s">
+      <c r="N26" s="58" t="s">
         <v>57</v>
       </c>
       <c r="O26" s="2"/>
@@ -2710,13 +2719,13 @@
       <c r="B27" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="42">
         <v>0.18</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="42">
         <v>0.22</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="42">
         <v>0.2</v>
       </c>
       <c r="H27" s="21" t="s">
@@ -2733,25 +2742,25 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="48">
         <v>0.1</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="55">
         <v>0.15</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="48">
         <v>0.12</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="62" t="s">
         <v>52</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="N28" s="68" t="s">
+      <c r="N28" s="62" t="s">
         <v>52</v>
       </c>
       <c r="O28" s="10"/>
@@ -2759,25 +2768,25 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="47">
         <v>0.16</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="42">
         <v>0.22</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="47">
         <v>0.18</v>
       </c>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="59" t="s">
         <v>58</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="N29" s="65" t="s">
+      <c r="N29" s="59" t="s">
         <v>58</v>
       </c>
       <c r="O29" s="2"/>
@@ -2811,25 +2820,25 @@
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="63">
+      <c r="C31" s="57">
         <v>0.12</v>
       </c>
-      <c r="D31" s="63">
+      <c r="D31" s="57">
         <v>0.15</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="57">
         <v>0.13</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="64" t="s">
         <v>60</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="N31" s="70" t="s">
+      <c r="N31" s="64" t="s">
         <v>60</v>
       </c>
       <c r="O31" s="2"/>
@@ -2846,7 +2855,7 @@
       <c r="D32" s="13">
         <v>0.21</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="39">
         <v>0.18</v>
       </c>
       <c r="H32" s="29" t="s">
@@ -2863,142 +2872,142 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="49">
         <v>0.16</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="49">
         <v>0.19</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="50">
         <v>0.18</v>
       </c>
       <c r="H33" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="67"/>
+      <c r="I33" s="61"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
       <c r="N33" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="O33" s="67"/>
+      <c r="O33" s="61"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
     </row>
     <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
-      <c r="H40" s="81" t="s">
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
+      <c r="H40" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="83"/>
-      <c r="N40" s="81" t="s">
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="79"/>
+      <c r="N40" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="83"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="79"/>
     </row>
     <row r="41" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="79" t="s">
+      <c r="D41" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="80" t="s">
+      <c r="E41" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="77" t="s">
+      <c r="H41" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="I41" s="78" t="s">
+      <c r="I41" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="79" t="s">
+      <c r="J41" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="80" t="s">
+      <c r="K41" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="N41" s="77" t="s">
+      <c r="N41" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="O41" s="78" t="s">
+      <c r="O41" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P41" s="79" t="s">
+      <c r="P41" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="Q41" s="80" t="s">
+      <c r="Q41" s="74" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="51">
         <v>0.16</v>
       </c>
-      <c r="D42" s="57">
+      <c r="D42" s="51">
         <v>0.2</v>
       </c>
-      <c r="E42" s="58">
+      <c r="E42" s="52">
         <v>0.18</v>
       </c>
-      <c r="H42" s="72" t="s">
+      <c r="H42" s="66" t="s">
         <v>55</v>
       </c>
       <c r="I42" s="2">
@@ -3010,7 +3019,7 @@
       <c r="K42" s="1">
         <v>0.3</v>
       </c>
-      <c r="N42" s="72" t="s">
+      <c r="N42" s="66" t="s">
         <v>55</v>
       </c>
       <c r="O42" s="8">
@@ -3024,19 +3033,25 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="72" t="s">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="59">
+      <c r="C43" s="53">
         <v>0.23</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="53">
         <v>0.32</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="54">
         <v>0.21</v>
       </c>
-      <c r="H43" s="72" t="s">
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="66" t="s">
         <v>56</v>
       </c>
       <c r="I43" s="8">
@@ -3048,7 +3063,7 @@
       <c r="K43" s="9">
         <v>0.45</v>
       </c>
-      <c r="N43" s="72" t="s">
+      <c r="N43" s="66" t="s">
         <v>56</v>
       </c>
       <c r="O43" s="2">
@@ -3062,21 +3077,21 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="75"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="75"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="75"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="69"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="69"/>
     </row>
     <row r="45" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="2">
@@ -3088,7 +3103,7 @@
       <c r="E45" s="2">
         <v>0.08</v>
       </c>
-      <c r="H45" s="46" t="s">
+      <c r="H45" s="40" t="s">
         <v>7</v>
       </c>
       <c r="I45" s="2">
@@ -3100,7 +3115,7 @@
       <c r="K45" s="1">
         <v>0.2</v>
       </c>
-      <c r="N45" s="46" t="s">
+      <c r="N45" s="40" t="s">
         <v>7</v>
       </c>
       <c r="O45" s="2">
@@ -3114,124 +3129,172 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="63">
+      <c r="C46" s="57">
         <v>0.12</v>
       </c>
-      <c r="D46" s="63">
+      <c r="D46" s="57">
         <v>0.15</v>
       </c>
-      <c r="E46" s="63">
+      <c r="E46" s="57">
         <v>0.13</v>
       </c>
-      <c r="H46" s="70" t="s">
+      <c r="H46" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="N46" s="70" t="s">
+      <c r="I46" s="57">
+        <v>0.16</v>
+      </c>
+      <c r="J46" s="57">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K46" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="N46" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="63"/>
+      <c r="O46" s="57">
+        <v>0.19</v>
+      </c>
+      <c r="P46" s="57">
+        <v>0.21</v>
+      </c>
+      <c r="Q46" s="57">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="47" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="76"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="62"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="62"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="62"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="56"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="56"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="56"/>
     </row>
     <row r="48" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="64" t="s">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="48">
+      <c r="C48" s="42">
         <v>0.18</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D48" s="42">
         <v>0.22</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="42">
         <v>0.2</v>
       </c>
-      <c r="H48" s="64" t="s">
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="N48" s="64" t="s">
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
+      <c r="N48" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-    </row>
-    <row r="49" spans="2:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O48" s="86">
+        <v>0.23</v>
+      </c>
+      <c r="P48" s="86">
+        <v>0.3</v>
+      </c>
+      <c r="Q48" s="86">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
       <c r="B49" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="48">
+      <c r="C49" s="42">
         <v>0.18</v>
       </c>
-      <c r="D49" s="48">
+      <c r="D49" s="42">
         <v>0.22</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="42">
         <v>0.2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>61</v>
       </c>
       <c r="H49" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
       <c r="N49" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-    </row>
-    <row r="50" spans="2:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="65" t="s">
+      <c r="O49" s="86">
+        <v>0.23</v>
+      </c>
+      <c r="P49" s="86">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q49" s="86">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="53">
+      <c r="C50" s="47">
         <v>0.16</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="42">
         <v>0.22</v>
       </c>
-      <c r="E50" s="53">
+      <c r="E50" s="47">
         <v>0.18</v>
       </c>
-      <c r="H50" s="65" t="s">
+      <c r="H50" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="84"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="84"/>
-      <c r="N50" s="65" t="s">
+      <c r="I50" s="75"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="75"/>
+      <c r="N50" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="O50" s="84"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="84"/>
-    </row>
-    <row r="51" spans="2:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O50" s="87">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P50" s="42">
+        <v>0.33</v>
+      </c>
+      <c r="Q50" s="87">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
       <c r="B51" s="25" t="s">
         <v>42</v>
       </c>
@@ -3253,21 +3316,27 @@
       <c r="N51" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="2:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O51" s="42">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="29" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="13">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D52" s="13">
         <v>0.21</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="39">
         <v>0.18</v>
       </c>
       <c r="H52" s="29" t="s">
@@ -3275,39 +3344,51 @@
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="45"/>
+      <c r="K52" s="39"/>
       <c r="N52" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="45"/>
-    </row>
-    <row r="53" spans="2:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="66" t="s">
+      <c r="O52" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="P52" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="Q52" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="55">
+      <c r="C53" s="49">
         <v>0.16</v>
       </c>
-      <c r="D53" s="55">
-        <v>0.19</v>
-      </c>
-      <c r="E53" s="56">
+      <c r="D53" s="49">
+        <v>0.21</v>
+      </c>
+      <c r="E53" s="50">
         <v>0.18</v>
       </c>
-      <c r="H53" s="66" t="s">
+      <c r="H53" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="56"/>
-      <c r="N53" s="66" t="s">
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="50"/>
+      <c r="N53" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="56"/>
+      <c r="O53" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="P53" s="49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q53" s="39">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3341,12 +3422,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
     </row>
     <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">

--- a/Semester_B/תוצאות ניסויים.xlsx
+++ b/Semester_B/תוצאות ניסויים.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayz\OneDrive - post.bgu.ac.il\שולחן העבודה\Study\שנה ה 2023 - 2024\סמסטר א\פרויקט מסכם 1\פרויקט\08 ProjectCode\Semester_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246CB20F-6F3A-4483-A1E8-0B13487EABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B21FE72-EFFD-49AB-9635-E6C2FD11492C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Gemini" sheetId="2" r:id="rId2"/>
+    <sheet name="GPT" sheetId="3" r:id="rId3"/>
+    <sheet name="CLAUDE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1555,7 +1557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1677,9 +1679,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1783,6 +1782,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1810,10 +1812,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1840,6 +1839,753 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95522</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>168728</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB78738-7534-3D0D-1010-D09B94179B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7878808" y="516528"/>
+          <a:ext cx="12931956" cy="5614307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE06044-D39B-907A-660C-E2E9B7E99B14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7764780" y="6537960"/>
+          <a:ext cx="13152120" cy="5623560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E06025-78C1-588D-DC68-BF7731E3777D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7764780" y="12573000"/>
+          <a:ext cx="13152120" cy="5623560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>137432</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75BAD9E-561D-E064-BB83-ED9458058A9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7511143" y="18832285"/>
+          <a:ext cx="13268325" cy="5440136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5E5E79-A52D-5046-C71A-8DBAC83DC4D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13243560" cy="5608320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC1FEFC-8327-16FF-C883-D9C2E7B6ED6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6035040"/>
+          <a:ext cx="13144500" cy="5623560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAA2486-237B-472A-296C-117CA41CFD89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12070080"/>
+          <a:ext cx="13144500" cy="5623560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07CEA54-3E66-4B28-2568-6797055778E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18105120"/>
+          <a:ext cx="13144500" cy="5623560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AB2B02-0A50-A289-06F3-329D9DC0F0B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13228320" cy="5608320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8201E3C3-C854-CDFB-AA01-6A61ED8A2B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6035040"/>
+          <a:ext cx="13144500" cy="5623560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55433E11-914E-5F19-21B7-BA6B99EA4ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12252960"/>
+          <a:ext cx="13144500" cy="5623560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F33AEB-7E78-0DCB-C3E4-0063B6957EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18288000"/>
+          <a:ext cx="13144500" cy="5623560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2107,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2500,16 +3246,16 @@
       <c r="Q20" s="82"/>
     </row>
     <row r="21" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="45" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -2538,19 +3284,19 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <v>0.16</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="50">
         <v>0.2</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="51">
         <v>0.18</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="64" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="2">
@@ -2562,7 +3308,7 @@
       <c r="K22" s="1">
         <v>0.3</v>
       </c>
-      <c r="N22" s="65" t="s">
+      <c r="N22" s="64" t="s">
         <v>55</v>
       </c>
       <c r="O22" s="8">
@@ -2576,19 +3322,19 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="52">
         <v>0.23</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="52">
         <v>0.32</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="53">
         <v>0.21</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="62" t="s">
         <v>56</v>
       </c>
       <c r="I23" s="8">
@@ -2600,7 +3346,7 @@
       <c r="K23" s="9">
         <v>0.45</v>
       </c>
-      <c r="N23" s="63" t="s">
+      <c r="N23" s="62" t="s">
         <v>56</v>
       </c>
       <c r="O23" s="2">
@@ -2652,19 +3398,19 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="54">
         <v>0.1</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="54">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E25" s="56">
+      <c r="E25" s="55">
         <v>0.11</v>
       </c>
-      <c r="H25" s="62" t="s">
+      <c r="H25" s="61" t="s">
         <v>51</v>
       </c>
       <c r="I25" s="10">
@@ -2676,7 +3422,7 @@
       <c r="K25" s="11">
         <v>0.19</v>
       </c>
-      <c r="N25" s="62" t="s">
+      <c r="N25" s="61" t="s">
         <v>51</v>
       </c>
       <c r="O25" s="10"/>
@@ -2684,19 +3430,19 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <v>0.18</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>0.22</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>0.2</v>
       </c>
-      <c r="H26" s="58" t="s">
+      <c r="H26" s="57" t="s">
         <v>57</v>
       </c>
       <c r="I26" s="2">
@@ -2708,7 +3454,7 @@
       <c r="K26" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N26" s="58" t="s">
+      <c r="N26" s="57" t="s">
         <v>57</v>
       </c>
       <c r="O26" s="2"/>
@@ -2719,13 +3465,13 @@
       <c r="B27" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="41">
         <v>0.18</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="41">
         <v>0.22</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="41">
         <v>0.2</v>
       </c>
       <c r="H27" s="21" t="s">
@@ -2742,25 +3488,25 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="47">
         <v>0.1</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="54">
         <v>0.15</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="47">
         <v>0.12</v>
       </c>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="61" t="s">
         <v>52</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="N28" s="62" t="s">
+      <c r="N28" s="61" t="s">
         <v>52</v>
       </c>
       <c r="O28" s="10"/>
@@ -2768,25 +3514,25 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="46">
         <v>0.16</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="41">
         <v>0.22</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="46">
         <v>0.18</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="58" t="s">
         <v>58</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="N29" s="59" t="s">
+      <c r="N29" s="58" t="s">
         <v>58</v>
       </c>
       <c r="O29" s="2"/>
@@ -2820,25 +3566,25 @@
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="56">
         <v>0.12</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="56">
         <v>0.15</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="56">
         <v>0.13</v>
       </c>
-      <c r="H31" s="64" t="s">
+      <c r="H31" s="63" t="s">
         <v>60</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="N31" s="64" t="s">
+      <c r="N31" s="63" t="s">
         <v>60</v>
       </c>
       <c r="O31" s="2"/>
@@ -2872,68 +3618,68 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="48">
         <v>0.16</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="48">
         <v>0.19</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="49">
         <v>0.18</v>
       </c>
       <c r="H33" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="61"/>
+      <c r="I33" s="60"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
       <c r="N33" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="O33" s="61"/>
+      <c r="O33" s="60"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
     </row>
     <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2957,57 +3703,57 @@
       <c r="Q40" s="79"/>
     </row>
     <row r="41" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="74" t="s">
+      <c r="E41" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="H41" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="I41" s="72" t="s">
+      <c r="I41" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="73" t="s">
+      <c r="J41" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="74" t="s">
+      <c r="K41" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="N41" s="71" t="s">
+      <c r="N41" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="O41" s="72" t="s">
+      <c r="O41" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="P41" s="73" t="s">
+      <c r="P41" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q41" s="74" t="s">
+      <c r="Q41" s="73" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="50">
         <v>0.16</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="50">
         <v>0.2</v>
       </c>
-      <c r="E42" s="52">
+      <c r="E42" s="51">
         <v>0.18</v>
       </c>
-      <c r="H42" s="66" t="s">
+      <c r="H42" s="65" t="s">
         <v>55</v>
       </c>
       <c r="I42" s="2">
@@ -3019,7 +3765,7 @@
       <c r="K42" s="1">
         <v>0.3</v>
       </c>
-      <c r="N42" s="66" t="s">
+      <c r="N42" s="65" t="s">
         <v>55</v>
       </c>
       <c r="O42" s="8">
@@ -3036,22 +3782,22 @@
       <c r="A43" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="52">
         <v>0.23</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="52">
         <v>0.32</v>
       </c>
-      <c r="E43" s="54">
+      <c r="E43" s="53">
         <v>0.21</v>
       </c>
       <c r="G43" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="66" t="s">
+      <c r="H43" s="65" t="s">
         <v>56</v>
       </c>
       <c r="I43" s="8">
@@ -3063,7 +3809,7 @@
       <c r="K43" s="9">
         <v>0.45</v>
       </c>
-      <c r="N43" s="66" t="s">
+      <c r="N43" s="65" t="s">
         <v>56</v>
       </c>
       <c r="O43" s="2">
@@ -3077,18 +3823,18 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="67"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="69"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="69"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="69"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="68"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="68"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="68"/>
     </row>
     <row r="45" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="40" t="s">
@@ -3129,92 +3875,98 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="56">
         <v>0.12</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="56">
         <v>0.15</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="56">
         <v>0.13</v>
       </c>
-      <c r="H46" s="64" t="s">
+      <c r="H46" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="57">
+      <c r="I46" s="56">
         <v>0.16</v>
       </c>
-      <c r="J46" s="57">
+      <c r="J46" s="56">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K46" s="57">
+      <c r="K46" s="56">
         <v>0.2</v>
       </c>
-      <c r="N46" s="64" t="s">
+      <c r="N46" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="O46" s="57">
+      <c r="O46" s="56">
         <v>0.19</v>
       </c>
-      <c r="P46" s="57">
+      <c r="P46" s="56">
         <v>0.21</v>
       </c>
-      <c r="Q46" s="57">
+      <c r="Q46" s="56">
         <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="70"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="56"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="56"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="56"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="55"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="55"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="55"/>
     </row>
     <row r="48" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="41">
         <v>0.18</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D48" s="41">
         <v>0.22</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="41">
         <v>0.2</v>
       </c>
       <c r="G48" t="s">
         <v>61</v>
       </c>
-      <c r="H48" s="58" t="s">
+      <c r="H48" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="N48" s="58" t="s">
+      <c r="I48" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="J48" s="41">
+        <v>0.39</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N48" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="O48" s="86">
+      <c r="O48" s="6">
         <v>0.23</v>
       </c>
-      <c r="P48" s="86">
+      <c r="P48" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q48" s="86">
+      <c r="Q48" s="6">
         <v>0.26</v>
       </c>
     </row>
@@ -3225,13 +3977,13 @@
       <c r="B49" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="42">
+      <c r="C49" s="41">
         <v>0.18</v>
       </c>
-      <c r="D49" s="42">
+      <c r="D49" s="41">
         <v>0.22</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="41">
         <v>0.2</v>
       </c>
       <c r="G49" t="s">
@@ -3240,19 +3992,25 @@
       <c r="H49" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
+      <c r="I49" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="N49" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="O49" s="86">
+      <c r="O49" s="6">
         <v>0.23</v>
       </c>
-      <c r="P49" s="86">
+      <c r="P49" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q49" s="86">
+      <c r="Q49" s="6">
         <v>0.26</v>
       </c>
     </row>
@@ -3260,34 +4018,40 @@
       <c r="A50" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="47">
+      <c r="C50" s="46">
         <v>0.16</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="41">
         <v>0.22</v>
       </c>
-      <c r="E50" s="47">
+      <c r="E50" s="46">
         <v>0.18</v>
       </c>
-      <c r="H50" s="59" t="s">
+      <c r="H50" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="75"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="75"/>
-      <c r="N50" s="59" t="s">
+      <c r="I50" s="76">
+        <v>0.25</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="K50" s="74">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N50" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="O50" s="87">
+      <c r="O50" s="76">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P50" s="42">
+      <c r="P50" s="41">
         <v>0.33</v>
       </c>
-      <c r="Q50" s="87">
+      <c r="Q50" s="76">
         <v>0.31</v>
       </c>
     </row>
@@ -3310,13 +4074,19 @@
       <c r="H51" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="I51" s="76">
+        <v>0.25</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="K51" s="76">
+        <v>0.3</v>
+      </c>
       <c r="N51" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="O51" s="42">
+      <c r="O51" s="41">
         <v>0.28000000000000003</v>
       </c>
       <c r="P51" s="2">
@@ -3342,9 +4112,15 @@
       <c r="H52" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="39"/>
+      <c r="I52" s="86">
+        <v>0.25</v>
+      </c>
+      <c r="J52" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="K52" s="39">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="N52" s="29" t="s">
         <v>59</v>
       </c>
@@ -3359,31 +4135,37 @@
       </c>
     </row>
     <row r="53" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="49">
+      <c r="C53" s="48">
         <v>0.16</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="48">
         <v>0.21</v>
       </c>
-      <c r="E53" s="50">
+      <c r="E53" s="49">
         <v>0.18</v>
       </c>
-      <c r="H53" s="60" t="s">
+      <c r="H53" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="50"/>
-      <c r="N53" s="60" t="s">
+      <c r="I53" s="86">
+        <v>0.25</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="K53" s="39">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N53" s="59" t="s">
         <v>54</v>
       </c>
       <c r="O53" s="13">
         <v>0.26</v>
       </c>
-      <c r="P53" s="49">
+      <c r="P53" s="48">
         <v>0.28999999999999998</v>
       </c>
       <c r="Q53" s="39">
@@ -3412,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D97262-586D-4AA2-A676-C5BE1616E623}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3952,5 +4734,36 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F40B65F-8508-4210-8B40-72E1C37E06F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="Y61" sqref="Y61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B42BB4D-E5AF-4045-92FF-C7D076200934}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="Y103" sqref="Y103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Semester_B/תוצאות ניסויים.xlsx
+++ b/Semester_B/תוצאות ניסויים.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayz\OneDrive - post.bgu.ac.il\שולחן העבודה\Study\שנה ה 2023 - 2024\סמסטר א\פרויקט מסכם 1\פרויקט\08 ProjectCode\Semester_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B21FE72-EFFD-49AB-9635-E6C2FD11492C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B9584-D939-4213-A72B-E9619998756C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Gemini" sheetId="2" r:id="rId2"/>
     <sheet name="GPT" sheetId="3" r:id="rId3"/>
     <sheet name="CLAUDE" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="73">
   <si>
     <t>precision</t>
   </si>
@@ -1185,6 +1186,39 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>ChatGPT-4</t>
+  </si>
+  <si>
+    <t>WTG2E</t>
+  </si>
+  <si>
+    <t>TGWE</t>
+  </si>
+  <si>
+    <t>TG1E</t>
+  </si>
+  <si>
+    <t>TG2E</t>
+  </si>
+  <si>
+    <t>Metrics</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1552,12 +1586,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1785,6 +1958,43 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1812,7 +2022,16 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2853,8 +3072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52:Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2869,24 +3088,24 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="H2" s="80" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="H2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
-      <c r="N2" s="80" t="s">
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+      <c r="N2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="82"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="1:17" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -3185,65 +3404,65 @@
       <c r="Q12" s="11"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="82"/>
-      <c r="H20" s="80" t="s">
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="H20" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="84"/>
-      <c r="N20" s="80" t="s">
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="97"/>
+      <c r="N20" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="82"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="95"/>
     </row>
     <row r="21" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="42" t="s">
@@ -3683,24 +3902,24 @@
     </row>
     <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
-      <c r="H40" s="77" t="s">
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="92"/>
+      <c r="H40" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="79"/>
-      <c r="N40" s="77" t="s">
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="92"/>
+      <c r="N40" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="79"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="92"/>
     </row>
     <row r="41" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="70" t="s">
@@ -4112,7 +4331,7 @@
       <c r="H52" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I52" s="86">
+      <c r="I52" s="77">
         <v>0.25</v>
       </c>
       <c r="J52" s="13">
@@ -4150,7 +4369,7 @@
       <c r="H53" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="86">
+      <c r="I53" s="77">
         <v>0.25</v>
       </c>
       <c r="J53" s="13">
@@ -4204,12 +4423,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -4742,7 +4961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F40B65F-8508-4210-8B40-72E1C37E06F1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="Y61" sqref="Y61"/>
     </sheetView>
   </sheetViews>
@@ -4757,7 +4976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B42BB4D-E5AF-4045-92FF-C7D076200934}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="Y103" sqref="Y103"/>
     </sheetView>
   </sheetViews>
@@ -4766,4 +4985,415 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78CE91F-1552-47DD-A10F-9A62A526B129}">
+  <dimension ref="A2:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="79"/>
+      <c r="B3" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="85">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="85">
+        <v>0.13</v>
+      </c>
+      <c r="I3" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="85">
+        <v>0.12</v>
+      </c>
+      <c r="L3" s="85">
+        <v>0.16</v>
+      </c>
+      <c r="M3" s="85">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="79"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="85">
+        <v>0.18</v>
+      </c>
+      <c r="E4" s="86">
+        <v>0.22</v>
+      </c>
+      <c r="F4" s="85">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="102"/>
+      <c r="J4" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="85">
+        <v>0.18</v>
+      </c>
+      <c r="L4" s="85">
+        <v>0.21</v>
+      </c>
+      <c r="M4" s="85">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="79"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="85">
+        <v>0.16</v>
+      </c>
+      <c r="E5" s="86">
+        <v>0.22</v>
+      </c>
+      <c r="F5" s="85">
+        <v>0.18</v>
+      </c>
+      <c r="I5" s="102"/>
+      <c r="J5" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="85">
+        <v>0.16</v>
+      </c>
+      <c r="L5" s="85">
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="88">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="79"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0.21</v>
+      </c>
+      <c r="F6" s="87">
+        <v>0.18</v>
+      </c>
+      <c r="I6" s="99"/>
+      <c r="J6" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="87">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="85">
+        <v>0.16</v>
+      </c>
+      <c r="E7" s="86">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F7" s="85">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="86">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M7" s="86">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="100"/>
+      <c r="C8" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="85">
+        <v>0.21</v>
+      </c>
+      <c r="E8" s="89">
+        <v>0.39</v>
+      </c>
+      <c r="F8" s="85">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I8" s="100"/>
+      <c r="J8" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="86">
+        <v>0.22</v>
+      </c>
+      <c r="L8" s="89">
+        <v>0.39</v>
+      </c>
+      <c r="M8" s="86">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="100"/>
+      <c r="C9" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="85">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="86">
+        <v>0.36</v>
+      </c>
+      <c r="F9" s="85">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I9" s="100"/>
+      <c r="J9" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="86">
+        <v>0.22</v>
+      </c>
+      <c r="L9" s="86">
+        <v>0.36</v>
+      </c>
+      <c r="M9" s="86">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="100"/>
+      <c r="C10" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="78">
+        <v>0.36</v>
+      </c>
+      <c r="F10" s="87">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I10" s="100"/>
+      <c r="J10" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="78">
+        <v>0.21</v>
+      </c>
+      <c r="L10" s="78">
+        <v>0.36</v>
+      </c>
+      <c r="M10" s="78">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="85">
+        <v>0.19</v>
+      </c>
+      <c r="E11" s="86">
+        <v>0.21</v>
+      </c>
+      <c r="F11" s="85">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="85">
+        <v>0.13</v>
+      </c>
+      <c r="L11" s="85">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="85">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="100"/>
+      <c r="C12" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="85">
+        <v>0.23</v>
+      </c>
+      <c r="E12" s="86">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="85">
+        <v>0.26</v>
+      </c>
+      <c r="I12" s="100"/>
+      <c r="J12" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="85">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="85">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M12" s="85">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="100"/>
+      <c r="C13" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="88">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E13" s="86">
+        <v>0.33</v>
+      </c>
+      <c r="F13" s="88">
+        <v>0.31</v>
+      </c>
+      <c r="I13" s="100"/>
+      <c r="J13" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="85">
+        <v>0.18</v>
+      </c>
+      <c r="L13" s="85">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M13" s="88">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="100"/>
+      <c r="C14" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="87">
+        <v>0.26</v>
+      </c>
+      <c r="E14" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="87">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I14" s="100"/>
+      <c r="J14" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="87">
+        <v>0.18</v>
+      </c>
+      <c r="L14" s="87">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M14" s="87">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>